--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2017.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2017.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.157444501998206</v>
+        <v>1.159832119941711</v>
       </c>
       <c r="B1">
-        <v>2.327972298162239</v>
+        <v>2.755426406860352</v>
       </c>
       <c r="C1">
-        <v>7.756284997513214</v>
+        <v>6.840989589691162</v>
       </c>
       <c r="D1">
-        <v>2.408839997246541</v>
+        <v>1.973016023635864</v>
       </c>
       <c r="E1">
-        <v>1.226093241972471</v>
+        <v>1.066205024719238</v>
       </c>
     </row>
   </sheetData>
